--- a/timeline_data.xlsx
+++ b/timeline_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allisoncoe\Documents\Walter\family history\timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allisoncoe\Documents\Walter\family history\Family-History-Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Event</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Day (end)</t>
+  </si>
+  <si>
+    <t>Event 1</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +484,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
     </row>
@@ -498,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +569,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -565,10 +584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +636,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
